--- a/va_facility_data_2025-02-20/Braxton County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Braxton%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Braxton County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Braxton%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R12bcd250be634b9d9c19d86629f3fd1a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9ec930d77e024a3e93519e97bbea4dc7"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2672064156db4b73967096ddf7c67331"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R48ab4bc9438e424f95c30b2d56397af0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rcd479a5715cd4597bba70b7db1793d48"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb1bebfee633e485cb0bc4b7cb31c4e08"/>
   </x:sheets>
 </x:workbook>
 </file>
